--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:28:48+00:00</t>
+    <t>2022-07-14T23:35:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T23:35:37+00:00</t>
+    <t>2022-07-15T00:31:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T00:31:00+00:00</t>
+    <t>2022-07-15T01:40:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T01:40:07+00:00</t>
+    <t>2022-07-15T03:58:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T03:58:01+00:00</t>
+    <t>2022-07-15T09:57:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T09:57:08+00:00</t>
+    <t>2022-07-18T23:59:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T23:59:16+00:00</t>
+    <t>2022-07-19T02:14:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T02:14:28+00:00</t>
+    <t>2022-07-19T08:05:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,14 +256,14 @@
     <t/>
   </si>
   <si>
-    <t>Healthcare plan for patient or group</t>
-  </si>
-  <si>
-    <t>Describes the intention of how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>患者やグループグループに対する / 患者やグループに対するヘルスケアプラン　Healthcare plan for patient or group</t>
+  </si>
+  <si>
+    <t>1人以上の開業医が、特定の条件または一連の条件のケアに限定される可能性がある、特定の患者、グループ、またはコミュニティの世話を一定期間提供する方法の意図を説明しています。 / Describes the intention of how one or more practitioners intend to deliver care for a particular patient, group or community for a period of time, possibly limited to care for a specific condition or set of conditions.</t>
+  </si>
+  <si>
+    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Request</t>
@@ -285,13 +285,13 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+    <t>このアーティファクトの論理ID / Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>リソースのURLで使用されるリソースの論理ID。割り当てられたら、この値は変更されません。 / The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>リソースにIDがないのは、IDが作成操作を使用してサーバーに送信されている場合です。 / The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
   </si>
   <si>
     <t>Resource.id</t>
@@ -304,16 +304,16 @@
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+    <t>リソースに関するメタデータ / Metadata about the resource</t>
+  </si>
+  <si>
+    <t>リソースに関するメタデータ。これは、インフラストラクチャによって維持されるコンテンツです。コンテンツの変更は、常にリソースのバージョンの変更に関連付けられているとは限りません。 / The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
   </si>
   <si>
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
@@ -324,13 +324,13 @@
 </t>
   </si>
   <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -343,19 +343,19 @@
 </t>
   </si>
   <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+    <t>リソースコンテンツの言語 / Language of the resource content</t>
+  </si>
+  <si>
+    <t>リソースが書かれている基本言語。 / The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>言語は、インデックス作成とアクセシビリティをサポートするために提供されます（通常、テキストから音声までのサービスなどのサービスが言語タグを使用します）。叙述(Narative)のHTML言語タグは、叙述(Narative)に適用されます。リソース上の言語タグを使用して、リソース内のデータから生成された他のプレゼンテーションの言語を指定できます。すべてのコンテンツが基本言語である必要はありません。リソース。言語は、叙述(Narative)に自動的に適用されると想定されるべきではありません。言語が指定されている場合、HTMLのDIV要素にも指定されている場合（XML：LangとHTML Lang属性の関係については、HTML5のルールを参照してください）。 / Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
   </si>
   <si>
     <t>preferred</t>
   </si>
   <si>
-    <t>A human language.</t>
+    <t>人間の言語。 / A human language.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/languages</t>
@@ -375,13 +375,13 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+    <t>人間の解釈のためのリソースのテキスト概要 / Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、人間へのリソースの内容を表すために使用できる人間の読み取り可能な叙述(Narative)。叙述(Narative)はすべての構造化されたデータをエンコードする必要はありませんが、人間が叙述(Narative)を読むだけで「臨床的に安全」にするために十分な詳細を含める必要があります。リソースの定義は、臨床的安全を確保するために、叙述(Narative)で表現するコンテンツを定義する場合があります。 / A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>含まれるリソースには叙述(Narative)がありません。含まれていないリソースには叙述(Narative)が必要です。場合によっては、リソースには、追加の個別のデータがほとんどまたはまったくないテキストのみがあります（すべてのMinoccur = 1要素が満たされている限り）。これは、情報がtext blob (バイナリー ラージ オブジェクト)としてキャプチャされるレガシーシステムからのデータ、またはテキストが生またはナレーションされ、エンコードされた情報が後で追加される場合に必要になる場合があります。 / Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
   </si>
   <si>
     <t>DomainResource.text</t>
@@ -401,13 +401,13 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+    <t>インラインリソースが含まれています / Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>これらのリソースには、それらを含むリソースを除いて独立した存在はありません - 独立して特定することはできず、独自の独立したトランザクションスコープを持つこともできません。 / These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>識別が失われると、コンテンツを適切に識別できる場合は、これを行うべきではありません。含まれるリソースには、メタ要素にプロファイルとタグがある場合がありますが、セキュリティラベルはありません。 / This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
   </si>
   <si>
     <t>DomainResource.contained</t>
@@ -427,33 +427,34 @@
 </t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+    <t>実装で定義された追加のコンテンツ / Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>拡張機能を使用または定義する機関や管轄権に関係なく、アプリケーション、プロジェクト、または標準による拡張機能の使用に関連するスティグマはありません。拡張機能の使用は、FHIR仕様がすべての人にコアレベルのシンプルさを保持できるようにするものです。 / There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+    <t>ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:両方ではなく、拡張または値[x]が必要です / Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>CarePlan.modifierExtension</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>無視できない拡張機能 / Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>リソースの基本的な定義の一部ではなく、それを含む要素の理解および/または含有要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義することが許可されていますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>修飾子拡張機能により、安全に無視できる大部分の拡張機能と明確に区別できるように、安全に無視できない拡張機能が可能になります。これにより、実装者が拡張の存在を禁止する必要性を排除することにより、相互運用性が促進されます。詳細については、[修飾子拡張の定義]（拡張性.html＃modifierextension）を参照してください。 / Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -466,16 +467,16 @@
 </t>
   </si>
   <si>
-    <t>External Ids for this plan</t>
-  </si>
-  <si>
-    <t>Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
-  </si>
-  <si>
-    <t>This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
-  </si>
-  <si>
-    <t>Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
+    <t>この計画の外部ID / External Ids for this plan</t>
+  </si>
+  <si>
+    <t>リソースが更新され、サーバーからサーバーに伝播するにつれて一定のままであるパフォーマーまたは他のシステムによってこのケアプランに割り当てられたビジネス識別子。 / Business identifiers assigned to this care plan by the performer or other systems which remain constant as the resource is updated and propagates from server to server.</t>
+  </si>
+  <si>
+    <t>これはビジネス識別子であり、リソース識別子ではありません（[ディスカッション]（Resource.html＃識別子を参照））。識別子が単一のリソースインスタンスにのみ表示することがベストプラクティスですが、ビジネス慣行は、同じ識別子を持つ複数のリソースインスタンスが存在する可能性があることを時々決定する場合があります。たとえば、複数の患者と個人のリソースインスタンスは、同じ社会保険番号を共有する場合があります。 / This is a business identifier, not a resource identifier (see [discussion](http://hl7.org/fhir/R4/resource.html#identifiers)).  It is best practice for the identifier to only appear on a single resource instance, however business practices may occasionally dictate that multiple resource instances with the same identifier can exist - possibly even with different resource types.  For example, multiple Patient and a Person resource instance might share the same social insurance number.</t>
+  </si>
+  <si>
+    <t>さまざまな参加システムで知られているため、サーバー全体で一貫性を保っている方法で、ケアプランの識別を可能にします。 / Allows identification of the care plan as it is known by various participating systems and in a way that remains consistent across servers.</t>
   </si>
   <si>
     <t>Request.identifier</t>
@@ -497,10 +498,10 @@
 </t>
   </si>
   <si>
-    <t>Instantiates FHIR protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+    <t>FHIRプロトコルまたは定義をインスタンス化します / Instantiates FHIR protocol or definition</t>
+  </si>
+  <si>
+    <t>FHIR定義のプロトコル、ガイドライン、アンケート、またはこのケアプランによって全体または一部が順守されているその他の定義を指しているURL。 / The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
   </si>
   <si>
     <t>Request.instantiatesCanonical</t>
@@ -512,13 +513,13 @@
     <t>CarePlan.instantiatesUri</t>
   </si>
   <si>
-    <t>Instantiates external protocol or definition</t>
-  </si>
-  <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
-  </si>
-  <si>
-    <t>This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
+    <t>外部プロトコルまたは定義をインスタンス化します / Instantiates external protocol or definition</t>
+  </si>
+  <si>
+    <t>URLは、外部から維持されているプロトコル、ガイドライン、アンケート、またはこのケアプランによって全体または一部が順守されているその他の定義を指しています。 / The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan.</t>
+  </si>
+  <si>
+    <t>これは、HTMLページ、PDFなどである可能性があるか、単に解決できないURI識別子である可能性があります。 / This might be an HTML page, PDF, etc. or could just be a non-resolvable URI identifier.</t>
   </si>
   <si>
     <t>Request.instantiatesUri</t>
@@ -535,13 +536,13 @@
 </t>
   </si>
   <si>
-    <t>Fulfills CarePlan</t>
-  </si>
-  <si>
-    <t>A care plan that is fulfilled in whole or in part by this care plan.</t>
-  </si>
-  <si>
-    <t>Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
+    <t>ケアプランを満たします / Fulfills CarePlan</t>
+  </si>
+  <si>
+    <t>このケアプランによって全体または一部に満たされるケアプラン。 / A care plan that is fulfilled in whole or in part by this care plan.</t>
+  </si>
+  <si>
+    <t>ケアプランを追跡し、提案/勧告が行われたかどうかを追跡することができます。 / Allows tracing of the care plan and tracking whether proposals/recommendations were acted upon.</t>
   </si>
   <si>
     <t>Request.basedOn</t>
@@ -554,16 +555,16 @@
 </t>
   </si>
   <si>
-    <t>CarePlan replaced by this CarePlan</t>
-  </si>
-  <si>
-    <t>Completed or terminated care plan whose function is taken by this new care plan.</t>
-  </si>
-  <si>
-    <t>The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
-  </si>
-  <si>
-    <t>Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
+    <t>このケアプランに置き換えられました / CarePlan replaced by this CarePlan</t>
+  </si>
+  <si>
+    <t>この新しいケアプランによって機能が講じる、または終了したケアプランを完了または終了しました。 / Completed or terminated care plan whose function is taken by this new care plan.</t>
+  </si>
+  <si>
+    <t>交換は、最初のケアプランがすぐに拒否された（問題のため）、または以前のケアプランが完了したためである可能性がありますが、ケアプランで説明されている訴訟の必要性は継続的です。 / The replacement could be because the initial care plan was immediately rejected (due to an issue) or because the previous care plan was completed, but the need for the action described by the care plan remains ongoing.</t>
+  </si>
+  <si>
+    <t>複数のケアプランを通じてインスタンス化された治療または管理プロセスの継続を追跡することができます。 / Allows tracing the continuation of a therapy or administrative process instantiated through multiple care plans.</t>
   </si>
   <si>
     <t>Request.replaces</t>
@@ -572,29 +573,30 @@
     <t>CarePlan.partOf</t>
   </si>
   <si>
-    <t>Part of referenced CarePlan</t>
-  </si>
-  <si>
-    <t>A larger care plan of which this particular care plan is a component or step.</t>
-  </si>
-  <si>
-    <t>Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
+    <t>参照されたケアプランの一部 / Part of referenced CarePlan</t>
+  </si>
+  <si>
+    <t>この特定のケアプランがコンポーネントまたはステップであるより大きなケアプラン。 / A larger care plan of which this particular care plan is a component or step.</t>
+  </si>
+  <si>
+    <t>各ケアプランは独立した要求であり、ケアプランを別のケアプランの一部にすることで、カスケードステータスの問題を引き起こす可能性があります。そのため、この要素はまだ議論されています。 / Each care plan is an independent request, such that having a care plan be part of another care plan can cause issues with cascading statuses.  As such, this element is still being discussed.</t>
   </si>
   <si>
     <t>CarePlan.status</t>
   </si>
   <si>
-    <t>draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
-  </si>
-  <si>
-    <t>Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
-  </si>
-  <si>
-    <t>The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
+    <t>ドラフト|アクティブ|オンホールド|取り消された|完了|エラーに入った|わからない / draft | active | on-hold | revoked | completed | entered-in-error | unknown</t>
+  </si>
+  <si>
+    <t>計画が現在行動されているか、将来の意図を表しているのか、現在歴史的な記録であるかを示します。 / Indicates whether the plan is currently being acted upon, represents future intentions or is now a historical record.</t>
+  </si>
+  <si>
+    <t>未知のコードは、他のステータスを伝えるために使用されるべきではありません。ステータスのいずれかが適用される場合は、未知のコードを使用する必要がありますが、オーサリングシステムはケアプランの現在の状態を知らない。
+この要素には、ステータスが現在有効ではないと計画をマークするコードに入力されたコードが含まれているため、修飾子としてラベル付けされています。 / The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the care plan.
 This element is labeled as a modifier because the status contains the code entered-in-error that marks the plan as not currently valid.</t>
   </si>
   <si>
-    <t>Allows clinicians to determine whether the plan is actionable or not.</t>
+    <t>臨床医は、計画が実行可能かどうかを判断することができます。 / Allows clinicians to determine whether the plan is actionable or not.</t>
   </si>
   <si>
     <t>required</t>
@@ -618,19 +620,19 @@
     <t>CarePlan.intent</t>
   </si>
   <si>
-    <t>proposal | plan | order | option</t>
-  </si>
-  <si>
-    <t>Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
-  </si>
-  <si>
-    <t>Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
-  </si>
-  <si>
-    <t>Codes indicating the degree of authority/intentionality associated with a care plan.</t>
+    <t>提案|計画|依頼（オーダ）|オプション / proposal | plan | order | option</t>
+  </si>
+  <si>
+    <t>ケアプランに関連する権限/意図性のレベルと、ケアプランがワークフローチェーンに適合する場所を示します。 / Indicates the level of authority/intentionality associated with the care plan and where the care plan fits into the workflow chain.</t>
+  </si>
+  <si>
+    <t>この要素は、リソースが実際に適用される時期と方法がいつ変更されるため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because the intent alters when and how the resource is actually applicable.</t>
+  </si>
+  <si>
+    <t>提案/推奨事項、計画、および依頼（オーダ）はすべて同じ構造を使用し、同じフルフィルメントチェーンに存在できます。 / Proposals/recommendations, plans and orders all use the same structure and can exist in the same fulfillment chain.</t>
+  </si>
+  <si>
+    <t>ケアプランに関連する権限/意図性の程度を示すコード。 / Codes indicating the degree of authority/intentionality associated with a care plan.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-intent|4.0.1</t>
@@ -646,22 +648,22 @@
 </t>
   </si>
   <si>
-    <t>Type of plan</t>
-  </si>
-  <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
-  </si>
-  <si>
-    <t>There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
-  </si>
-  <si>
-    <t>Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
+    <t>計画の種類 / Type of plan</t>
+  </si>
+  <si>
+    <t>これが、複数の共存計画の差別化をサポートするための「種類」の計画を特定します。例えば「在宅医療」、「精神医学」、「喘息」、「病気管理」、「ウェルネスプラン」など。 / Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", "wellness plan", etc.</t>
+  </si>
+  <si>
+    <t>分類には複数の軸があり、1つの計画が複数の目的に役立つ場合があります。場合によっては、これはCareplan.concernへの参照とともに冗長性がある場合があります。 / There may be multiple axes of categorization and one plan may serve multiple purposes.  In some cases, this may be redundant with references to CarePlan.concern.</t>
+  </si>
+  <si>
+    <t>どのプランが取得され、さまざまなタイプのユーザーに表示されるかをフィルタリングするために使用されます。 / Used for filtering what plan(s) are retrieved and displayed to different types of users.</t>
   </si>
   <si>
     <t>example</t>
   </si>
   <si>
-    <t>Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
+    <t>これが、複数の共存計画の差別化をサポートするための「種類」の計画を特定します。例えば「在宅医療」、「精神医学」、「喘息」、「疾患管理」など / Identifies what "kind" of plan this is to support differentiation between multiple co-existing plans; e.g. "Home health", "psychiatric", "asthma", "disease management", etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-category</t>
@@ -673,22 +675,22 @@
     <t>CarePlan.title</t>
   </si>
   <si>
-    <t>Human-friendly name for the care plan</t>
-  </si>
-  <si>
-    <t>Human-friendly name for the care plan.</t>
+    <t>ケアプランの人間に優しい名前 / Human-friendly name for the care plan</t>
+  </si>
+  <si>
+    <t>ケアプランの人間に優しい名前。 / Human-friendly name for the care plan.</t>
   </si>
   <si>
     <t>CarePlan.description</t>
   </si>
   <si>
-    <t>Summary of nature of plan</t>
-  </si>
-  <si>
-    <t>A description of the scope and nature of the plan.</t>
-  </si>
-  <si>
-    <t>Provides more detail than conveyed by category.</t>
+    <t>計画の性質の概要 / Summary of nature of plan</t>
+  </si>
+  <si>
+    <t>計画の範囲と性質の説明。 / A description of the scope and nature of the plan.</t>
+  </si>
+  <si>
+    <t>カテゴリで伝えられるよりも多くの詳細を提供します。 / Provides more detail than conveyed by category.</t>
   </si>
   <si>
     <t>FiveWs.what[x]</t>
@@ -705,10 +707,10 @@
 </t>
   </si>
   <si>
-    <t>Who the care plan is for</t>
-  </si>
-  <si>
-    <t>Identifies the patient or group whose intended care is described by the plan.</t>
+    <t>ケアプランの目的 / Who the care plan is for</t>
+  </si>
+  <si>
+    <t>意図したケアが計画によって説明されている患者またはグループを特定します。 / Identifies the patient or group whose intended care is described by the plan.</t>
   </si>
   <si>
     <t>Request.subject</t>
@@ -730,13 +732,13 @@
 </t>
   </si>
   <si>
-    <t>Encounter created as part of</t>
-  </si>
-  <si>
-    <t>The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
-  </si>
-  <si>
-    <t>This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
+    <t>の一部として作成されたエンカウンター / Encounter created as part of</t>
+  </si>
+  <si>
+    <t>このケアプランが作成されたEncounter、またはこのレコードの作成が密接に関連付けられているEncounter。 / The Encounter during which this CarePlan was created or to which the creation of this record is tightly associated.</t>
+  </si>
+  <si>
+    <t>これは通常、イベントが発生したEncounterですが、いくつかのアクティビティは、Encounterの公式完了前または公式完了後に開始される可能性がありますが、それでもEncounterの文脈に結び付けられています。ケアプランの結果として実施されたケアプラン活動は、他のEncounterの一部として発生する可能性があります。 / This will typically be the encounter the event occurred within, but some activities may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter. CarePlan activities conducted as a result of the care plan may well occur as part of other encounters.</t>
   </si>
   <si>
     <t>Request.context</t>
@@ -762,16 +764,16 @@
 </t>
   </si>
   <si>
-    <t>Time period plan covers</t>
-  </si>
-  <si>
-    <t>Indicates when the plan did (or is intended to) come into effect and end.</t>
-  </si>
-  <si>
-    <t>Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
-  </si>
-  <si>
-    <t>Allows tracking what plan(s) are in effect at a particular time.</t>
+    <t>期間計画カバー / Time period plan covers</t>
+  </si>
+  <si>
+    <t>計画がいつ行われたか（または意図されている）が有効になって終了することを示します。 / Indicates when the plan did (or is intended to) come into effect and end.</t>
+  </si>
+  <si>
+    <t>計画の一部としてスケジュールされた活動は、1回のEncounter/エピソード内での活動が計画されているか、複数のEncounter/エピソード（例：慢性疾患の縦断的管理）に関係なく、指定された期間に制約する必要があります。 / Any activities scheduled as part of the plan should be constrained to the specified period regardless of whether the activities are planned within a single encounter/episode or across multiple encounters/episodes (e.g. the longitudinal management of a chronic condition).</t>
+  </si>
+  <si>
+    <t>特定の時間に有効な計画を追跡することができます。 / Allows tracking what plan(s) are in effect at a particular time.</t>
   </si>
   <si>
     <t>Request.occurrence[x]</t>
@@ -797,10 +799,10 @@
 </t>
   </si>
   <si>
-    <t>Date record was first recorded</t>
-  </si>
-  <si>
-    <t>Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
+    <t>日付記録が最初に記録されました / Date record was first recorded</t>
+  </si>
+  <si>
+    <t>この特定のCareplanレコードがシステムで作成されたときを表します。これは、多くの場合、システムが生成した日付です。 / Represents when this particular CarePlan record was created in the system, which is often a system-generated date.</t>
   </si>
   <si>
     <t>Request.authoredOn</t>
@@ -819,13 +821,13 @@
 </t>
   </si>
   <si>
-    <t>Who is the designated responsible party</t>
-  </si>
-  <si>
-    <t>When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
-  </si>
-  <si>
-    <t>The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
+    <t>指定された責任者は誰ですか / Who is the designated responsible party</t>
+  </si>
+  <si>
+    <t>著者が人口を増やしている場合、著者はケアプランの責任を負います。ケアプランは著者に起因します。 / When populated, the author is responsible for the care plan.  The care plan is attributed to the author.</t>
+  </si>
+  <si>
+    <t>著者は貢献者である可能性があります。たとえば、組織は著者になることができますが、貢献者としてリストされていません。 / The author may also be a contributor.  For example, an organization can be an author, but not listed as a contributor.</t>
   </si>
   <si>
     <t>Request.requester</t>
@@ -837,13 +839,13 @@
     <t>CarePlan.contributor</t>
   </si>
   <si>
-    <t>Who provided the content of the care plan</t>
-  </si>
-  <si>
-    <t>Identifies the individual(s) or organization who provided the contents of the care plan.</t>
-  </si>
-  <si>
-    <t>Collaborative care plans may have multiple contributors.</t>
+    <t>誰がケアプランの内容を提供しました / Who provided the content of the care plan</t>
+  </si>
+  <si>
+    <t>ケアプランの内容を提供した個人または組織を特定します。 / Identifies the individual(s) or organization who provided the contents of the care plan.</t>
+  </si>
+  <si>
+    <t>共同ケアプランには複数の貢献者がいる場合があります。 / Collaborative care plans may have multiple contributors.</t>
   </si>
   <si>
     <t>CarePlan.careTeam</t>
@@ -853,13 +855,13 @@
 </t>
   </si>
   <si>
-    <t>Who's involved in plan?</t>
-  </si>
-  <si>
-    <t>Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
-  </si>
-  <si>
-    <t>Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
+    <t>誰が計画に関与していますか？ / Who's involved in plan?</t>
+  </si>
+  <si>
+    <t>この計画で想定されるケアに関与すると予想されるすべての人々と組織を特定します。 / Identifies all people and organizations who are expected to be involved in the care envisioned by this plan.</t>
+  </si>
+  <si>
+    <t>ケアチームの代表を許可し、スコープケアプランを支援します。場合によっては、アクセス許可の決定者である場合があります。 / Allows representation of care teams, helps scope care plan.  In some cases may be a determiner of access permissions.</t>
   </si>
   <si>
     <t>Request.performer {similar but does not entail CareTeam}</t>
@@ -875,16 +877,16 @@
 </t>
   </si>
   <si>
-    <t>Health issues this plan addresses</t>
-  </si>
-  <si>
-    <t>Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
-  </si>
-  <si>
-    <t>When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
-  </si>
-  <si>
-    <t>Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
+    <t>健康問題この計画は対処しています / Health issues this plan addresses</t>
+  </si>
+  <si>
+    <t>条件/問題/懸念/診断/などを特定します。その管理および/または緩和は、この計画によって処理されます。 / Identifies the conditions/problems/concerns/diagnoses/etc. whose management and/or mitigation are handled by this plan.</t>
+  </si>
+  <si>
+    <t>診断がアレルギーまたは不耐性に関連している場合、両方を使用することができます。ただし、意思決定支援のために実行可能であるためには、アレルギーまたは不耐性の状態をアレルギー耐性として表現する必要があるため、状態のみを使用するだけでは不十分です。 / When the diagnosis is related to an allergy or intolerance, the Condition and AllergyIntolerance resources can both be used. However, to be actionable for decision support, using Condition alone is not sufficient as the allergy or intolerance condition needs to be represented as an AllergyIntolerance.</t>
+  </si>
+  <si>
+    <t>リンク計画は、管理する条件にリンクします。要素は、プランによって対処されたリスクとアクティブな条件を識別できます。（条件リソースには、「高血圧のリスクがある」や「転倒リスク」などを含めることができます。）また、スコープ計画 - さまざまな懸念に対処する複数の計画が存在する場合があります。 / Links plan to the conditions it manages.  The element can identify risks addressed by the plan as well as active conditions.  (The Condition resource can include things like "at risk for hypertension" or "fall risk".)  Also scopes plans - multiple plans may exist addressing different concerns.</t>
   </si>
   <si>
     <t>Request.reasonReference</t>
@@ -906,16 +908,16 @@
 </t>
   </si>
   <si>
-    <t>Information considered as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
-  </si>
-  <si>
-    <t>Use "concern" to identify specific conditions addressed by the care plan.</t>
-  </si>
-  <si>
-    <t>Identifies barriers and other considerations associated with the care plan.</t>
+    <t>計画の一部として考慮される情報 / Information considered as part of plan</t>
+  </si>
+  <si>
+    <t>計画の形成に特に影響を与えた患者の記録の一部を特定します。これらには、併存疾患、最近の手順、制限、最近の評価などが含まれる場合があります。 / Identifies portions of the patient's record that specifically influenced the formation of the plan.  These might include comorbidities, recent procedures, limitations, recent assessments, etc.</t>
+  </si>
+  <si>
+    <t>「懸念」を使用して、ケアプランで扱われている特定の条件を特定します。 / Use "concern" to identify specific conditions addressed by the care plan.</t>
+  </si>
+  <si>
+    <t>ケアプランに関連する障壁やその他の考慮事項を特定します。 / Identifies barriers and other considerations associated with the care plan.</t>
   </si>
   <si>
     <t>Request.supportingInfo</t>
@@ -928,16 +930,16 @@
 </t>
   </si>
   <si>
-    <t>Desired outcome of plan</t>
-  </si>
-  <si>
-    <t>Describes the intended objective(s) of carrying out the care plan.</t>
-  </si>
-  <si>
-    <t>Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
-  </si>
-  <si>
-    <t>Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
+    <t>計画の望ましい結果 / Desired outcome of plan</t>
+  </si>
+  <si>
+    <t>ケアプランを実行する意図された目的について説明します。 / Describes the intended objective(s) of carrying out the care plan.</t>
+  </si>
+  <si>
+    <t>目標は、特定の変化を達成したり、単に現在の状態を維持したり、減少を遅らせることもできます。 / Goal can be achieving a particular change or merely maintaining a current state or even slowing a decline.</t>
+  </si>
+  <si>
+    <t>計画のコンテキストを提供します。計画の有効性を臨床医によって評価することができます。 / Provides context for plan.  Allows plan effectiveness to be evaluated by clinicians.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode&lt;=OBJ].</t>
@@ -953,17 +955,17 @@
 </t>
   </si>
   <si>
-    <t>Action to occur as part of plan</t>
-  </si>
-  <si>
-    <t>Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
-  </si>
-  <si>
-    <t>Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
-  </si>
-  <si>
-    <t>cpl-3:Provide a reference or detail, not both {detail.empty() or reference.empty()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
+    <t>計画の一部として発生するアクション / Action to occur as part of plan</t>
+  </si>
+  <si>
+    <t>計画の一部として発生する計画されたアクションを特定します。たとえば、使用する薬、実行するラボテスト、自己監視、教育など。 / Identifies a planned action to occur as part of the plan.  For example, a medication to be used, lab tests to perform, self-monitoring, education, etc.</t>
+  </si>
+  <si>
+    <t>システムが計画されたアクティビティのパフォーマンスを促し、ベストプラクティスに対する計画を検証できるようにします。 / Allows systems to prompt for performance of planned activities, and validate plans against best practice.</t>
+  </si>
+  <si>
+    <t>cpl-3:両方ではなく、参照または詳細を提供します / Provide a reference or detail, not both {detail.empty() or reference.empty()}
+ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
   </si>
   <si>
     <t>{no mapping
@@ -976,10 +978,10 @@
     <t>CarePlan.activity.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+    <t>要素間参照のための一意のID / Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>リソース内の要素の一意のID（内部参照用）。これは、スペースを含まない文字列値である場合があります。 / Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
   </si>
   <si>
     <t>Element.id</t>
@@ -991,7 +993,7 @@
     <t>CarePlan.activity.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>要素の基本的な定義の一部ではない追加情報を表すために使用できます。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。 / May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1004,10 +1006,11 @@
 user contentmodifiers</t>
   </si>
   <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+    <t>認識されていなくても無視できない拡張機能 / Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義の一部ではなく、それが含まれている要素の理解、および/または含まれる要素の子孫の理解を変更するために使用される場合があります。通常、修飾子要素は否定または資格を提供します。拡張機能を安全で管理しやすくするために、拡張機能の定義と使用に適用される厳格なガバナンスセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たされる一連の要件があります。アプリケーションの処理リソースは、修飾子拡張機能をチェックする必要があります。
+モディファイア拡張は、リソースまたはdomainResource上の要素の意味を変更してはなりません（修飾軸自体の意味を変更することはできません）。 / May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
@@ -1017,16 +1020,16 @@
     <t>CarePlan.activity.outcomeCodeableConcept</t>
   </si>
   <si>
-    <t>Results of the activity</t>
-  </si>
-  <si>
-    <t>Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
-  </si>
-  <si>
-    <t>Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
-  </si>
-  <si>
-    <t>Identifies the results of the activity.</t>
+    <t>アクティビティの結果 / Results of the activity</t>
+  </si>
+  <si>
+    <t>アクティビティの状態が評価された時点での結果を特定します。たとえば、教育活動の結果は、患者が理解している（またはそうではない）ことがあります。 / Identifies the outcome at the point when the status of the activity is assessed.  For example, the outcome of an education activity could be patient understands (or not).</t>
+  </si>
+  <si>
+    <t>これにより、アクティビティステータス（完了または進行中）を複製してはならないことに注意してください。 / Note that this should not duplicate the activity status (e.g. completed or in progress).</t>
+  </si>
+  <si>
+    <t>アクティビティの結果を特定します。 / Identifies the results of the activity.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-activity-outcome</t>
@@ -1035,16 +1038,16 @@
     <t>CarePlan.activity.outcomeReference</t>
   </si>
   <si>
-    <t>Appointment, Encounter, Procedure, etc.</t>
-  </si>
-  <si>
-    <t>Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
-  </si>
-  <si>
-    <t>The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
-  </si>
-  <si>
-    <t>Links plan to resulting actions.</t>
+    <t>任命、遭遇、手順など。 / Appointment, Encounter, Procedure, etc.</t>
+  </si>
+  <si>
+    <t>活動から生じる結果または行動の詳細。手順や遭遇や観察などの「イベント」リソースへの参照は、アクティビティ自体の結果/結果です。アクティビティは、Careplan.Activity.DetailまたはCareplan.Activity.Reference（「リクエスト」リソースへの参照）を使用して伝達できます。 / Details of the outcome or action resulting from the activity.  The reference to an "event" resource, such as Procedure or Encounter or Observation, is the result/outcome of the activity itself.  The activity can be conveyed using CarePlan.activity.detail OR using the CarePlan.activity.reference (a reference to a “request” resource).</t>
+  </si>
+  <si>
+    <t>活動の結果は、関連する目標の結果とは無関係です。たとえば、目標が150ポンドの目標体重を達成することであり、活動が食事に定義される場合、アクティビティの結果は消費されるカロリーである可能性がありますが、目標の結果は実際の体重の観察です。 / The activity outcome is independent of the outcome of the related goal(s).  For example, if the goal is to achieve a target body weight of 150 lbs and an activity is defined to diet, then the activity outcome could be calories consumed whereas the goal outcome is an observation for the actual body weight measured.</t>
+  </si>
+  <si>
+    <t>リンクプランへのリンク結果のアクション。 / Links plan to resulting actions.</t>
   </si>
   <si>
     <t>{Event that is outcome of Request in activity.reference}</t>
@@ -1060,16 +1063,16 @@
 </t>
   </si>
   <si>
-    <t>Comments about the activity status/progress</t>
-  </si>
-  <si>
-    <t>Notes about the adherence/status/progress of the activity.</t>
-  </si>
-  <si>
-    <t>This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
-  </si>
-  <si>
-    <t>Can be used to capture information about adherence, progress, concerns, etc.</t>
+    <t>アクティビティステータス/進捗に関するコメント / Comments about the activity status/progress</t>
+  </si>
+  <si>
+    <t>アクティビティの順守/ステータス/進捗状況に関するメモ。 / Notes about the adherence/status/progress of the activity.</t>
+  </si>
+  <si>
+    <t>この要素は、実行するアクティビティを記述するために使用しないでください - それはActivity.detail.ReferenceまたはActivity.detail.descriptionによって指摘されたリソース内で発生します。 / This element should NOT be used to describe the activity to be performed - that occurs either within the resource pointed to by activity.detail.reference or in activity.detail.description.</t>
+  </si>
+  <si>
+    <t>アドヒアランス、進捗、懸念などに関する情報をキャプチャするために使用できます。 / Can be used to capture information about adherence, progress, concerns, etc.</t>
   </si>
   <si>
     <t>.inboundRelationship[typeCode=SUBJ].source[classCode=OBS, moodCode=EVN, code="annotation"].value</t>
@@ -1085,17 +1088,18 @@
 </t>
   </si>
   <si>
-    <t>Activity details defined in specific resource</t>
-  </si>
-  <si>
-    <t>The details of the proposed activity represented in a specific resource.</t>
-  </si>
-  <si>
-    <t>Standard extension exists ([resource-pertainsToGoal](http://hl7.org/fhir/R4/extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.  +    <t>特定のリソースで定義されたアクティビティの詳細 / Activity details defined in specific resource</t>
+  </si>
+  <si>
+    <t>特定のリソースで表される提案されたアクティビティの詳細。 / The details of the proposed activity represented in a specific resource.</t>
+  </si>
+  <si>
+    <t>標準的な拡張は、careplan.activity.Referenceの参照されたリソースのいずれかから目標を参照できるようにするため、標準拡張が存在します（拡張 - リソース - ペルテンストログアル。html）。+Careplan.Activity.Referenceが参照されているリソースがCareplanから独立して表示される場合、目標は表示される必要があります。この要素を使用してケアプランによって指摘されている要求は、「ベース」要素を使用してこのケアプランを *指しないはずです。つまり、ケアプランの一部である要求は、ケアプランに「基づいている」わけではありません。 / Standard extension exists ([resource-pertainsToGoal](http://hl7.org/fhir/R4/extension-resource-pertainstogoal.html)) that allows goals to be referenced from any of the referenced resources in CarePlan.activity.reference.   The goal should be visible when the resource referenced by CarePlan.activity.reference is viewed independently from the CarePlan.  Requests that are pointed to by a CarePlan using this element should *not* point to this CarePlan using the "basedOn" element.  i.e. Requests that are part of a CarePlan are not "based on" the CarePlan.</t>
   </si>
   <si>
-    <t>Details in a form consistent with other applications and contexts of use.</t>
+    <t>他のアプリケーションや使用のコンテキストと一致する形式の詳細。 / Details in a form consistent with other applications and contexts of use.</t>
   </si>
   <si>
     <t xml:space="preserve">cpl-3
@@ -1108,13 +1112,13 @@
     <t>CarePlan.activity.detail</t>
   </si>
   <si>
-    <t>In-line definition of activity</t>
-  </si>
-  <si>
-    <t>A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
-  </si>
-  <si>
-    <t>Details in a simple form for generic care plan systems.</t>
+    <t>アクティビティのインライン定義 / In-line definition of activity</t>
+  </si>
+  <si>
+    <t>手順などの特定のリソースについて知らない一般的なケアプランシステム（たとえば、フォーム駆動型）に適した計画されたアクティビティの簡単な要約。 / A simple summary of a planned activity suitable for a general care plan system (e.g. form driven) that doesn't know about specific resources such as procedure etc.</t>
+  </si>
+  <si>
+    <t>一般的なケアプランシステム用の簡単な形式の詳細。 / Details in a simple form for generic care plan systems.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP, subsetCode=SUMM].target</t>
@@ -1132,16 +1136,16 @@
     <t>CarePlan.activity.detail.kind</t>
   </si>
   <si>
-    <t>Appointment | CommunicationRequest | DeviceRequest | MedicationRequest | NutritionOrder | Task | ServiceRequest | VisionPrescription</t>
-  </si>
-  <si>
-    <t>A description of the kind of resource the in-line definition of a care plan activity is representing.  The CarePlan.activity.detail is an in-line definition when a resource is not referenced using CarePlan.activity.reference.  For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
-  </si>
-  <si>
-    <t>May determine what types of extensions are permitted.</t>
-  </si>
-  <si>
-    <t>Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
+    <t>予約|communicationRequest |DeviceRequest |dedicationrequest |栄養依頼（オーダ）|タスク|ServiceRequest |VisionPrescription / Appointment | CommunicationRequest | DeviceRequest | MedicationRequest | NutritionOrder | Task | ServiceRequest | VisionPrescription</t>
+  </si>
+  <si>
+    <t>ケアプラン活動のインライン定義が表している種類のリソースの説明。careplan.activity.detailは、careplan.activity.Referenceを使用してリソースが参照されない場合のインライン定義です。たとえば、薬物療法、サービスレクエスト、またはCommunicationRequest。 / A description of the kind of resource the in-line definition of a care plan activity is representing.  The CarePlan.activity.detail is an in-line definition when a resource is not referenced using CarePlan.activity.reference.  For example, a MedicationRequest, a ServiceRequest, or a CommunicationRequest.</t>
+  </si>
+  <si>
+    <t>どのタイプの拡張機能が許可されているかを決定できます。 / May determine what types of extensions are permitted.</t>
+  </si>
+  <si>
+    <t>FHIRの一部として定義されたリソースタイプは、ケアプランアクティビティのインライン定義として表現できます。 / Resource types defined as part of FHIR that can be represented as in-line definitions of a care plan activity.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-activity-kind|4.0.1</t>
@@ -1157,34 +1161,34 @@
 </t>
   </si>
   <si>
-    <t>The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan activity.</t>
-  </si>
-  <si>
-    <t>Allows Questionnaires that the patient (or practitioner) should fill in to fulfill the care plan activity.</t>
+    <t>FHIR定義のプロトコル、ガイドライン、アンケート、またはこのケアプランアクティビティによって全体または一部に順守されているその他の定義を指しているURL。 / The URL pointing to a FHIR-defined protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan activity.</t>
+  </si>
+  <si>
+    <t>患者（または開業医）がケアプランの活動を果たすために記入すべきアンケートを許可します。 / Allows Questionnaires that the patient (or practitioner) should fill in to fulfill the care plan activity.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.instantiatesUri</t>
   </si>
   <si>
-    <t>The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan activity.</t>
+    <t>URLは、外部から維持されているプロトコル、ガイドライン、アンケート、またはこのケアプランアクティビティによって全体または一部に順守されているその他の定義を指しています。 / The URL pointing to an externally maintained protocol, guideline, questionnaire or other definition that is adhered to in whole or in part by this CarePlan activity.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.code</t>
   </si>
   <si>
-    <t>Detail type of activity</t>
-  </si>
-  <si>
-    <t>Detailed description of the type of planned activity; e.g. what lab test, what procedure, what kind of encounter.</t>
-  </si>
-  <si>
-    <t>Tends to be less relevant for activities involving particular products.  Codes should not convey negation - use "prohibited" instead.</t>
-  </si>
-  <si>
-    <t>Allows matching performed to planned as well as validation against protocols.</t>
-  </si>
-  <si>
-    <t>Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
+    <t>アクティビティの詳細 / Detail type of activity</t>
+  </si>
+  <si>
+    <t>計画されたアクティビティのタイプの詳細な説明。例えばどのラボテスト、どのような手順、どのようなEncounterがありますか。 / Detailed description of the type of planned activity; e.g. what lab test, what procedure, what kind of encounter.</t>
+  </si>
+  <si>
+    <t>特定の製品が関与する活動にはあまり関連性がない傾向があります。コードは否定を伝えるべきではありません - 代わりに「禁止」を使用してください。 / Tends to be less relevant for activities involving particular products.  Codes should not convey negation - use "prohibited" instead.</t>
+  </si>
+  <si>
+    <t>プロトコルに対する検証と同様に、実行されたパフォーマンスを計画することを可能にします。 / Allows matching performed to planned as well as validation against protocols.</t>
+  </si>
+  <si>
+    <t>アクティビティのタイプの詳細な説明。例えばどのラボテスト、どのような手順、どのようなEncounterがありますか。 / Detailed description of the type of activity; e.g. What lab test, what procedure, what kind of encounter.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/procedure-code</t>
@@ -1202,16 +1206,16 @@
     <t>CarePlan.activity.detail.reasonCode</t>
   </si>
   <si>
-    <t>Why activity should be done or why activity was prohibited</t>
-  </si>
-  <si>
-    <t>Provides the rationale that drove the inclusion of this particular activity as part of the plan or the reason why the activity was prohibited.</t>
-  </si>
-  <si>
-    <t>This could be a diagnosis code.  If a full condition record exists or additional detail is needed, use reasonCondition instead.</t>
-  </si>
-  <si>
-    <t>Identifies why a care plan activity is needed.  Can include any health condition codes as well as such concepts as "general wellness", prophylaxis, surgical preparation, etc.</t>
+    <t>アクティビティを行う必要がある理由、またはアクティビティが禁止された理由 / Why activity should be done or why activity was prohibited</t>
+  </si>
+  <si>
+    <t>計画の一部として、この特定の活動を促進した理論的根拠を提供します。 / Provides the rationale that drove the inclusion of this particular activity as part of the plan or the reason why the activity was prohibited.</t>
+  </si>
+  <si>
+    <t>これは診断コードである可能性があります。完全な状態レコードが存在する場合、または追加の詳細が必要な場合は、代わりにReasonConditionを使用してください。 / This could be a diagnosis code.  If a full condition record exists or additional detail is needed, use reasonCondition instead.</t>
+  </si>
+  <si>
+    <t>ケアプランの活動が必要な理由を特定します。「一般的なウェルネス」、予防、外科的準備など、健康状態コードとそのような概念を含めることができます。 / Identifies why a care plan activity is needed.  Can include any health condition codes as well as such concepts as "general wellness", prophylaxis, surgical preparation, etc.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/clinical-findings</t>
@@ -1227,44 +1231,45 @@
 </t>
   </si>
   <si>
-    <t>Why activity is needed</t>
-  </si>
-  <si>
-    <t>Indicates another resource, such as the health condition(s), whose existence justifies this request and drove the inclusion of this particular activity as part of the plan.</t>
-  </si>
-  <si>
-    <t>Conditions can be identified at the activity level that are not identified as reasons for the overall plan.</t>
+    <t>アクティビティが必要な理由 / Why activity is needed</t>
+  </si>
+  <si>
+    <t>健康状態などの別のリソースを示します。その存在はこの要求を正当化し、計画の一部としてこの特定の活動を含めることを促進しました。 / Indicates another resource, such as the health condition(s), whose existence justifies this request and drove the inclusion of this particular activity as part of the plan.</t>
+  </si>
+  <si>
+    <t>全体的な計画の理由として特定されていない活動レベルで条件を特定できます。 / Conditions can be identified at the activity level that are not identified as reasons for the overall plan.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.goal</t>
   </si>
   <si>
-    <t>Goals this activity relates to</t>
-  </si>
-  <si>
-    <t>Internal reference that identifies the goals that this activity is intended to contribute towards meeting.</t>
-  </si>
-  <si>
-    <t>So that participants know the link explicitly.</t>
+    <t>このアクティビティが関連する目標 / Goals this activity relates to</t>
+  </si>
+  <si>
+    <t>この活動が会議に貢献することを意図しているという目標を特定する内部参照。 / Internal reference that identifies the goals that this activity is intended to contribute towards meeting.</t>
+  </si>
+  <si>
+    <t>そのため、参加者はリンクを明示的に知っています。 / So that participants know the link explicitly.</t>
   </si>
   <si>
     <t>CarePlan.activity.detail.status</t>
   </si>
   <si>
-    <t>not-started | scheduled | in-progress | on-hold | completed | cancelled | stopped | unknown | entered-in-error</t>
-  </si>
-  <si>
-    <t>Identifies what progress is being made for the specific activity.</t>
-  </si>
-  <si>
-    <t>Some aspects of status can be inferred based on the resources linked in actionTaken.  Note that "status" is only as current as the plan was most recently updated.  
+    <t>スタートしていない|スケジュール|進行中|オンホールド|完了|キャンセル|停止|不明|エラーに入った / not-started | scheduled | in-progress | on-hold | completed | cancelled | stopped | unknown | entered-in-error</t>
+  </si>
+  <si>
+    <t>特定のアクティビティに対してどのような進歩が行われているかを特定します。 / Identifies what progress is being made for the specific activity.</t>
+  </si>
+  <si>
+    <t>ステータスのいくつかの側面は、ActionTakenにリンクされているリソースに基づいて推測できます。「ステータス」は最近更新されたのと同じくらい最新であることに注意してください。
+未知のコードは、他のステータスを伝えるために使用されるべきではありません。ステータスのいずれかが適用される場合は、未知のコードを使用する必要がありますが、オーサリングシステムはアクティビティの現在の状態を知りません。 / Some aspects of status can be inferred based on the resources linked in actionTaken.  Note that "status" is only as current as the plan was most recently updated.  
 The unknown code is not to be used to convey other statuses.  The unknown code should be used when one of the statuses applies, but the authoring system doesn't know the current state of the activity.</t>
   </si>
   <si>
-    <t>Indicates progress against the plan, whether the activity is still relevant for the plan.</t>
-  </si>
-  <si>
-    <t>Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
+    <t>活動が計画に依然として関連しているかどうか、計画に対する進捗を示します。 / Indicates progress against the plan, whether the activity is still relevant for the plan.</t>
+  </si>
+  <si>
+    <t>全体的なライフサイクル内のケアプラン活動の現在の状態を反映するコード。 / Codes that reflect the current state of a care plan activity within its overall life cycle.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/care-plan-activity-status|4.0.1</t>
@@ -1282,13 +1287,13 @@
     <t>CarePlan.activity.detail.statusReason</t>
   </si>
   <si>
-    <t>Reason for current status</t>
-  </si>
-  <si>
-    <t>Provides reason why the activity isn't yet started, is on hold, was cancelled, etc.</t>
-  </si>
-  <si>
-    <t>Will generally not be present if status is "complete".  Be sure to prompt to update this (or at least remove the existing value) if the status is changed.</t>
+    <t>現在のステータスの理由 / Reason for current status</t>
+  </si>
+  <si>
+    <t>アクティビティがまだ開始されておらず、保留中であり、キャンセルされた理由などを提供します。 / Provides reason why the activity isn't yet started, is on hold, was cancelled, etc.</t>
+  </si>
+  <si>
+    <t>ステータスが「完全」である場合、通常、存在しません。ステータスが変更された場合は、必ずこれを更新する（または少なくとも既存の値を削除する）ように求めてください。 / Will generally not be present if status is "complete".  Be sure to prompt to update this (or at least remove the existing value) if the status is changed.</t>
   </si>
   <si>
     <t>Request.statusReason</t>
@@ -1301,19 +1306,19 @@
 </t>
   </si>
   <si>
-    <t>If true, activity is prohibiting action</t>
-  </si>
-  <si>
-    <t>If true, indicates that the described activity is one that must NOT be engaged in when following the plan.  If false, or missing, indicates that the described activity is one that should be engaged in when following the plan.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because it marks an activity as an activity that is not to be performed.</t>
-  </si>
-  <si>
-    <t>Captures intention to not do something that may have been previously typical.</t>
-  </si>
-  <si>
-    <t>If missing indicates that the described activity is one that should be engaged in when following the plan.</t>
+    <t>真(true)の場合、アクティビティはアクションを禁止しています / If true, activity is prohibiting action</t>
+  </si>
+  <si>
+    <t>真(true)の場合、説明されたアクティビティが計画に従うときに従事してはならないものであることを示します。false、または紛失した場合、説明されたアクティビティが計画に従うときに従事する必要があることを示します。 / If true, indicates that the described activity is one that must NOT be engaged in when following the plan.  If false, or missing, indicates that the described activity is one that should be engaged in when following the plan.</t>
+  </si>
+  <si>
+    <t>この要素は、実行されないアクティビティとしてアクティビティをマークするため、修飾子としてラベル付けされています。 / This element is labeled as a modifier because it marks an activity as an activity that is not to be performed.</t>
+  </si>
+  <si>
+    <t>以前は典型的だったかもしれないことをしないという意図を捉えています。 / Captures intention to not do something that may have been previously typical.</t>
+  </si>
+  <si>
+    <t>欠落している場合、説明されたアクティビティが計画に従うときに従事するべきアクティビティであることを示します。 / If missing indicates that the described activity is one that should be engaged in when following the plan.</t>
   </si>
   <si>
     <t>Request.doNotPerform</t>
@@ -1329,13 +1334,13 @@
 Periodstring</t>
   </si>
   <si>
-    <t>When activity is to occur</t>
-  </si>
-  <si>
-    <t>The period, timing or frequency upon which the described activity is to occur.</t>
-  </si>
-  <si>
-    <t>Allows prompting for activities and detection of missed planned activities.</t>
+    <t>アクティビティが発生する場合 / When activity is to occur</t>
+  </si>
+  <si>
+    <t>記述されたアクティビティが発生する期間、タイミング、または頻度。 / The period, timing or frequency upon which the described activity is to occur.</t>
+  </si>
+  <si>
+    <t>逃した計画されたアクティビティの活動と検出を促すことができます。 / Allows prompting for activities and detection of missed planned activities.</t>
   </si>
   <si>
     <t>TQ1</t>
@@ -1348,16 +1353,16 @@
 </t>
   </si>
   <si>
-    <t>Where it should happen</t>
-  </si>
-  <si>
-    <t>Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
-  </si>
-  <si>
-    <t>May reference a specific clinical location or may identify a type of location.</t>
-  </si>
-  <si>
-    <t>Helps in planning of activity.</t>
+    <t>それが起こるべき場所 / Where it should happen</t>
+  </si>
+  <si>
+    <t>アクティビティが発生する施設を特定します。例えば自宅、病院、特定の診療所など。 / Identifies the facility where the activity will occur; e.g. home, hospital, specific clinic, etc.</t>
+  </si>
+  <si>
+    <t>特定の臨床的位置を参照するか、場所の種類を特定する場合があります。 / May reference a specific clinical location or may identify a type of location.</t>
+  </si>
+  <si>
+    <t>活動の計画に役立ちます。 / Helps in planning of activity.</t>
   </si>
   <si>
     <t>.participation[typeCode=LOC].role</t>
@@ -1373,13 +1378,13 @@
 </t>
   </si>
   <si>
-    <t>Who will be responsible?</t>
-  </si>
-  <si>
-    <t>Identifies who's expected to be involved in the activity.</t>
-  </si>
-  <si>
-    <t>A performer MAY also be a participant in the care plan.</t>
+    <t>誰が責任を負いますか？ / Who will be responsible?</t>
+  </si>
+  <si>
+    <t>誰が活動に関与すると予想されるかを特定します。 / Identifies who's expected to be involved in the activity.</t>
+  </si>
+  <si>
+    <t>パフォーマーは、ケアプランの参加者でもあります。 / A performer MAY also be a participant in the care plan.</t>
   </si>
   <si>
     <t>Request.performer</t>
@@ -1398,13 +1403,13 @@
 Reference(Substance|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Medication)</t>
   </si>
   <si>
-    <t>What is to be administered/supplied</t>
-  </si>
-  <si>
-    <t>Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
-  </si>
-  <si>
-    <t>A product supplied or administered as part of a care plan activity.</t>
+    <t>何が管理/供給されるか / What is to be administered/supplied</t>
+  </si>
+  <si>
+    <t>活動で消費または供給される食品、薬物、またはその他の製品を特定します。 / Identifies the food, drug or other product to be consumed or supplied in the activity.</t>
+  </si>
+  <si>
+    <t>ケアプラン活動の一環として提供または管理された製品。 / A product supplied or administered as part of a care plan activity.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
@@ -1427,13 +1432,13 @@
 </t>
   </si>
   <si>
-    <t>How to consume/day?</t>
-  </si>
-  <si>
-    <t>Identifies the quantity expected to be consumed in a given day.</t>
-  </si>
-  <si>
-    <t>Allows rough dose checking.</t>
+    <t>消費する方法/日？ / How to consume/day?</t>
+  </si>
+  <si>
+    <t>特定の日に消費されると予想される量を特定します。 / Identifies the quantity expected to be consumed in a given day.</t>
+  </si>
+  <si>
+    <t>大まかな用量チェックを許可します。 / Allows rough dose checking.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP][classCode=SBADM].doseQuantity</t>
@@ -1445,10 +1450,10 @@
     <t>CarePlan.activity.detail.quantity</t>
   </si>
   <si>
-    <t>How much to administer/supply/consume</t>
-  </si>
-  <si>
-    <t>Identifies the quantity expected to be supplied, administered or consumed by the subject.</t>
+    <t>管理/供給/消費量 / How much to administer/supply/consume</t>
+  </si>
+  <si>
+    <t>対象者（患者／被験者）によって供給、管理、または消費されると予想される数量を識別します。 / Identifies the quantity expected to be supplied, administered or consumed by the subject.</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP][classCode=SPLY].quantity</t>
@@ -1460,10 +1465,10 @@
     <t>CarePlan.activity.detail.description</t>
   </si>
   <si>
-    <t>Extra info describing activity to perform</t>
-  </si>
-  <si>
-    <t>This provides a textual description of constraints on the intended activity occurrence, including relation to other activities.  It may also include objectives, pre-conditions and end-conditions.  Finally, it may convey specifics about the activity such as body site, method, route, etc.</t>
+    <t>実行するアクティビティを説明する追加の情報 / Extra info describing activity to perform</t>
+  </si>
+  <si>
+    <t>これは、他のアクティビティとの関係を含む、意図したアクティビティの発生に関する制約のテキストの説明を提供します。また、目標、事前条件、および最終条件が含まれる場合があります。最後に、ボディサイト、方法、ルートなどのアクティビティに関する詳細を伝えることができます。 / This provides a textual description of constraints on the intended activity occurrence, including relation to other activities.  It may also include objectives, pre-conditions and end-conditions.  Finally, it may convey specifics about the activity such as body site, method, route, etc.</t>
   </si>
   <si>
     <t>.text</t>
@@ -1472,13 +1477,13 @@
     <t>CarePlan.note</t>
   </si>
   <si>
-    <t>Comments about the plan</t>
-  </si>
-  <si>
-    <t>General notes about the care plan not covered elsewhere.</t>
-  </si>
-  <si>
-    <t>Used to capture information that applies to the plan as a whole that doesn't fit into discrete elements.</t>
+    <t>計画についてのコメント / Comments about the plan</t>
+  </si>
+  <si>
+    <t>他の場所でカバーされていないケアプランに関する一般的なメモ。 / General notes about the care plan not covered elsewhere.</t>
+  </si>
+  <si>
+    <t>計画全体に適用される情報を離散要素に適合しない情報をキャプチャするために使用されます。 / Used to capture information that applies to the plan as a whole that doesn't fit into discrete elements.</t>
   </si>
   <si>
     <t>Request.note</t>
@@ -1807,7 +1812,7 @@
     <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="126.984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="233.65234375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1820,7 +1825,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="159.0703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="238.96484375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="53.859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>

--- a/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
+++ b/jpcore-r4/release/JPCore_V1.1/StructureDefinition-jp-careplan.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-19T08:05:59+00:00</t>
+    <t>2022-07-20T22:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
